--- a/docs/PTA2_DDC_100/PTA2_DDC_100_14.08.2024_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_14.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,139 +505,157 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731784425.7743626</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731784425.7743626.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731784425.7743626.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>282.9</v>
       </c>
-      <c r="J3" t="n">
-        <v>282.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>282.27</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.6299999999999955</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731784430.9883869</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731784432.6142595</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784430.9883869.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784432.6142595.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>282.9</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>284.24</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1.340000000000032</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -635,51 +663,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731784433.2319872</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731784433.9530249</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784433.2319872.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784433.9530249.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>283.68</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>284.21</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.5299999999999727</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -687,139 +721,157 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731784437.3142648</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731784437.3142648.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731784437.3142648.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>283.72</v>
       </c>
-      <c r="J6" t="n">
-        <v>283.72</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>282.91</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.8100000000000023</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731784443.9799452</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731784443.9799452.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731784443.9799452.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>130.86</v>
       </c>
-      <c r="J7" t="n">
-        <v>130.86</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>130.8</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731784446.9876113</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731784447.6953335</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784446.9876113.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784447.6953335.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6497</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6494</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>3</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -827,95 +879,107 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731784450.433883</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731784450.433883.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731784450.433883.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6466.5</v>
       </c>
-      <c r="J9" t="n">
-        <v>6466.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6461</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731784452.2392845</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731784453.1864696</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784452.2392845.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784453.1864696.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>502.15</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>503.8</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>1.650000000000034</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -923,51 +987,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731784455.6207094</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731784456.1268196</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784455.6207094.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784456.1268196.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>504.75</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>503.05</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>1.699999999999989</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -975,139 +1045,157 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731784456.5310903</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731784456.5310903.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731784456.5310903.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>502.55</v>
       </c>
-      <c r="J12" t="n">
-        <v>502.55</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>501.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-1.050000000000011</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731784460.3577647</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731784460.3577647.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731784460.3577647.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>225.66</v>
       </c>
-      <c r="J13" t="n">
-        <v>225.66</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>224.3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-1.359999999999985</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731784467.5132432</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731784468.2339618</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784467.5132432.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784468.2339618.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>1066.8</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>1062.2</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>4.599999999999909</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -1115,139 +1203,157 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731784468.90513</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731784468.90513.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731784468.90513.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>1057.6</v>
       </c>
-      <c r="J15" t="n">
-        <v>1057.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1060</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.400000000000091</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731784475.0703795</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731784475.0703795.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731784475.0703795.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>12.163</v>
       </c>
-      <c r="J16" t="n">
-        <v>12.163</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>12.088</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.07500000000000107</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731784477.406687</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731784479.0028846</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784477.406687.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784479.0028846.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>127.08</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>127.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.4200000000000017</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -1255,95 +1361,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731784481.6326828</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731784481.6326828.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731784481.6326828.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>126.8</v>
       </c>
-      <c r="J18" t="n">
-        <v>126.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>126.16</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.6400000000000006</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731784484.7548203</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731784485.442344</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731784484.7548203.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731784485.442344.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>164.8</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>165.32</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.5199999999999818</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1351,95 +1469,107 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731784488.4490392</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731784488.4490392.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731784488.4490392.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>164.66</v>
       </c>
-      <c r="J20" t="n">
-        <v>164.66</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>164.16</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731784493.6925614</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731784494.3239014</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784493.6925614.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784494.3239014.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>50.545</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>50.495</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.05000000000000426</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1447,95 +1577,107 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731784496.4872167</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731784496.4872167.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731784496.4872167.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>50.24</v>
       </c>
-      <c r="J22" t="n">
-        <v>50.24</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>50.14</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.1000000000000014</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731784500.7909288</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731784501.743796</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784500.7909288.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784501.743796.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1410</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1406.2</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>3.799999999999955</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1543,139 +1685,157 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731784502.5098886</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731784502.5098886.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731784502.5098886.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1406</v>
       </c>
-      <c r="J24" t="n">
-        <v>1406</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1401</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731784509.5638778</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731784509.5638778.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731784509.5638778.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>59.64</v>
       </c>
-      <c r="J25" t="n">
-        <v>59.64</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>59.59</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.04999999999999716</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731784514.6601725</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731784517.0570822</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784514.6601725.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784517.0570822.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>101.65</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>101.42</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.230000000000004</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1683,95 +1843,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731784517.9608927</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731784517.9608927.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731784517.9608927.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>101.21</v>
       </c>
-      <c r="J27" t="n">
-        <v>101.21</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>101.06</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.1499999999999915</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731784522.0738254</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731784522.3693962</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/SELG1731784522.0738254.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/SELG1731784522.3693962.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>57.29</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>57.12</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1700000000000017</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1779,95 +1951,107 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731784522.6289966</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731784522.6289966.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731784522.6289966.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>56.95</v>
       </c>
-      <c r="J29" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>56.71</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.240000000000002</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.42</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731784524.8715105</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731784525.6296728</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731784524.8715105.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731784525.6296728.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>157.6</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>158.84</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>1.240000000000009</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.79</v>
       </c>
     </row>
@@ -1875,95 +2059,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731784528.4940221</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731784528.4940221.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731784528.4940221.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>156.92</v>
       </c>
-      <c r="J31" t="n">
-        <v>156.92</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>156.98</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731784540.3913994</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731784541.4592407</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731784540.3913994.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731784541.4592407.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>20.801</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>20.79</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.01099999999999923</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1971,51 +2167,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731784545.3673444</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731784545.8950877</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731784545.3673444.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731784545.8950877.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>695.05</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>692.7</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>2.349999999999909</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2023,43 +2225,49 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731784546.6007624</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731784546.6007624.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731784546.6007624.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>690.1</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>690.1</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2067,51 +2275,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731784550.634586</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731784551.3379672</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731784550.634586.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731784551.3379672.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>159.17</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>158.61</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.5599999999999739</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -2119,44 +2333,50 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731784551.7476819</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731784551.7476819.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731784551.7476819.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>157.9</v>
       </c>
-      <c r="J36" t="n">
-        <v>157.9</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>156.26</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-1.640000000000015</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-1.04</v>
       </c>
     </row>
   </sheetData>
@@ -2217,19 +2437,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.350000000000023</v>
+        <v>2.300000000000011</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1.116666666666674</v>
+        <v>0.7666666666666705</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="F2" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -2239,19 +2459,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.870000000000005</v>
+        <v>1.060000000000002</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6233333333333348</v>
+        <v>0.3533333333333341</v>
       </c>
       <c r="E3" t="n">
-        <v>0.66</v>
+        <v>0.3700000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
@@ -2261,19 +2481,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5199999999999818</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2599999999999909</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="E4" t="n">
-        <v>0.32</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="F4" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -2283,19 +2503,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.799999999999955</v>
+        <v>-1.200000000000045</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.899999999999977</v>
+        <v>-0.6000000000000227</v>
       </c>
       <c r="E5" t="n">
-        <v>0.27</v>
+        <v>-0.08999999999999997</v>
       </c>
       <c r="F5" t="n">
-        <v>0.14</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="6">
@@ -2305,19 +2525,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.230000000000004</v>
+        <v>0.08000000000001251</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.115000000000002</v>
+        <v>0.04000000000000625</v>
       </c>
       <c r="E6" t="n">
-        <v>0.23</v>
+        <v>0.07999999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
@@ -2327,19 +2547,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.240000000000009</v>
+        <v>1.300000000000011</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6200000000000045</v>
+        <v>0.6500000000000057</v>
       </c>
       <c r="E7" t="n">
-        <v>0.79</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="8">
@@ -2349,19 +2569,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4200000000000017</v>
+        <v>-0.2199999999999989</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2100000000000009</v>
+        <v>-0.1099999999999994</v>
       </c>
       <c r="E8" t="n">
-        <v>0.33</v>
+        <v>-0.17</v>
       </c>
       <c r="F8" t="n">
-        <v>0.16</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="9">
@@ -2371,19 +2591,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>-2.5</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05</v>
+        <v>-0.03999999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="10">
@@ -2393,19 +2613,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05000000000000426</v>
+        <v>-0.04999999999999716</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02500000000000213</v>
+        <v>-0.02499999999999858</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="11">
@@ -2437,19 +2657,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5599999999999739</v>
+        <v>-1.080000000000041</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2799999999999869</v>
+        <v>-0.5400000000000205</v>
       </c>
       <c r="E12" t="n">
-        <v>0.35</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.18</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="13">
@@ -2459,19 +2679,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1700000000000017</v>
+        <v>-0.07000000000000028</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08500000000000085</v>
+        <v>-0.03500000000000014</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3</v>
+        <v>-0.12</v>
       </c>
       <c r="F13" t="n">
-        <v>0.15</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="14">
@@ -2481,19 +2701,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.599999999999909</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>2.299999999999955</v>
+        <v>3.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.43</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="15">
@@ -2503,19 +2723,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0.6299999999999955</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-0.6299999999999955</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-0.22</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="16">
@@ -2547,19 +2767,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-0.04999999999999716</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.04999999999999716</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="18">
@@ -2569,19 +2789,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-1.359999999999985</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-1.359999999999985</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="19">
@@ -2591,19 +2811,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="20">
@@ -2613,19 +2833,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0.07500000000000107</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-0.07500000000000107</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-0.62</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="21">
